--- a/FT_classification.xlsx
+++ b/FT_classification.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14424"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14412" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="32">
   <si>
     <t>Type</t>
   </si>
@@ -55,11 +58,80 @@
   <si>
     <t>trans_effect</t>
   </si>
+  <si>
+    <t>Foraging distance</t>
+  </si>
+  <si>
+    <t>Nesting site</t>
+  </si>
+  <si>
+    <t>Brood parasites</t>
+  </si>
+  <si>
+    <t>Feeding preference</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>cavity</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>polylectic</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>oligolectic</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>FT type</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>arable</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Land use class</t>
+  </si>
+  <si>
+    <t>nesting preference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,8 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -373,525 +449,2871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>0.9</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.6</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>0.9</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.6</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.3</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>0.9</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>0.9</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4.5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0.9</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4.5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
         <v>0.6</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>60</v>
       </c>
-      <c r="I2">
-        <v>0.3</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0.3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
         <v>2.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
         <v>0.6</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>60</v>
       </c>
-      <c r="I3">
-        <v>0.3</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
         <v>0.6</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>60</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.9</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>2.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
         <v>0.6</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>60</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.9</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
         <v>2.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
         <v>0.6</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>60</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.9</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0.2</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
       <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="I7">
-        <v>0.3</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0.3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
         <v>3.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>0.2</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.3</v>
-      </c>
       <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
         <v>30</v>
       </c>
-      <c r="I8">
-        <v>0.3</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0.3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
       <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
+      </c>
+      <c r="J9">
         <v>30</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.9</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
       <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>0.3</v>
+      </c>
+      <c r="J10">
         <v>30</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.9</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
         <v>3.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.3</v>
-      </c>
       <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
         <v>30</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.9</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
         <v>3.5</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>0.2</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.3</v>
-      </c>
       <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>0.3</v>
+      </c>
+      <c r="J12">
         <v>30</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.9</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>0.2</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.2</v>
-      </c>
       <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="I13">
-        <v>0.3</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="E14">
-        <v>0.2</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.2</v>
-      </c>
       <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.9</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
         <v>4.5</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>0.2</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.2</v>
-      </c>
       <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.9</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
         <v>4.5</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>0.2</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.2</v>
-      </c>
       <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16">
         <v>10</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.7</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+      <c r="G9">
+        <v>0.7</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>0.7</v>
+      </c>
+      <c r="J9">
+        <v>0.7</v>
+      </c>
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+      <c r="L9">
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>0.7</v>
+      </c>
+      <c r="N9">
+        <v>0.7</v>
+      </c>
+      <c r="O9">
+        <v>0.7</v>
+      </c>
+      <c r="P9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <v>0.5</v>
+      </c>
+      <c r="O10">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+      <c r="H11">
+        <v>0.7</v>
+      </c>
+      <c r="I11">
+        <v>0.7</v>
+      </c>
+      <c r="J11">
+        <v>0.7</v>
+      </c>
+      <c r="K11">
+        <v>0.7</v>
+      </c>
+      <c r="L11">
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <v>0.7</v>
+      </c>
+      <c r="N11">
+        <v>0.7</v>
+      </c>
+      <c r="O11">
+        <v>0.7</v>
+      </c>
+      <c r="P11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
+        <v>0.3</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>0.1</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12">
+        <v>0.3</v>
+      </c>
+      <c r="N12">
+        <v>0.3</v>
+      </c>
+      <c r="O12">
+        <v>0.3</v>
+      </c>
+      <c r="P12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.7</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.7</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <v>0.7</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>0.7</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>0.7</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>0.7</v>
+      </c>
+      <c r="J10">
+        <v>0.3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11">
+        <v>0.7</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
+        <v>0.7</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>0.7</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>0.7</v>
+      </c>
+      <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16">
+        <v>0.7</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+      <c r="I17">
+        <v>0.7</v>
+      </c>
+      <c r="J17">
+        <v>0.3</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.3</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.3</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>0.3</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.3</v>
+      </c>
+      <c r="H22">
+        <v>0.05</v>
+      </c>
+      <c r="I22">
+        <v>0.7</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.3</v>
+      </c>
+      <c r="H23">
+        <v>0.05</v>
+      </c>
+      <c r="I23">
+        <v>0.7</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24">
+        <v>0.05</v>
+      </c>
+      <c r="I24">
+        <v>0.7</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.3</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>0.3</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>0.3</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="H27">
+        <v>0.05</v>
+      </c>
+      <c r="I27">
+        <v>0.7</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.3</v>
+      </c>
+      <c r="H28">
+        <v>0.05</v>
+      </c>
+      <c r="I28">
+        <v>0.7</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.3</v>
+      </c>
+      <c r="H29">
+        <v>0.05</v>
+      </c>
+      <c r="I29">
+        <v>0.7</v>
+      </c>
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="H30">
+        <v>0.05</v>
+      </c>
+      <c r="I30">
+        <v>0.7</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>0.3</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.3</v>
+      </c>
+      <c r="H32">
+        <v>0.05</v>
+      </c>
+      <c r="I32">
+        <v>0.7</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>0.05</v>
+      </c>
+      <c r="I33">
+        <v>0.7</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.3</v>
+      </c>
+      <c r="H34">
+        <v>0.05</v>
+      </c>
+      <c r="I34">
+        <v>0.7</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>